--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lgals1-Ptprc.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lgals1-Ptprc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.0030457740495</v>
+        <v>28.5964765</v>
       </c>
       <c r="H2">
-        <v>28.0030457740495</v>
+        <v>57.192953</v>
       </c>
       <c r="I2">
-        <v>0.03684545808452985</v>
+        <v>0.03476572333614217</v>
       </c>
       <c r="J2">
-        <v>0.03684545808452985</v>
+        <v>0.02571318923534191</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.510770739254903</v>
+        <v>1.10502</v>
       </c>
       <c r="N2">
-        <v>0.510770739254903</v>
+        <v>2.21004</v>
       </c>
       <c r="O2">
-        <v>0.0009504536902291754</v>
+        <v>0.001923002024630407</v>
       </c>
       <c r="P2">
-        <v>0.0009504536902291754</v>
+        <v>0.00128282364057296</v>
       </c>
       <c r="Q2">
-        <v>14.30313639140015</v>
+        <v>31.59967846203001</v>
       </c>
       <c r="R2">
-        <v>14.30313639140015</v>
+        <v>126.39871384812</v>
       </c>
       <c r="S2">
-        <v>3.501990160462579E-05</v>
+        <v>6.685455636314199E-05</v>
       </c>
       <c r="T2">
-        <v>3.501990160462579E-05</v>
+        <v>3.298548702562276E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.0030457740495</v>
+        <v>28.5964765</v>
       </c>
       <c r="H3">
-        <v>28.0030457740495</v>
+        <v>57.192953</v>
       </c>
       <c r="I3">
-        <v>0.03684545808452985</v>
+        <v>0.03476572333614217</v>
       </c>
       <c r="J3">
-        <v>0.03684545808452985</v>
+        <v>0.02571318923534191</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>201.725524389746</v>
+        <v>0.005387666666666666</v>
       </c>
       <c r="N3">
-        <v>201.725524389746</v>
+        <v>0.016163</v>
       </c>
       <c r="O3">
-        <v>0.3753753970897798</v>
+        <v>9.37584288794208E-06</v>
       </c>
       <c r="P3">
-        <v>0.3753753970897798</v>
+        <v>9.381856664395554E-06</v>
       </c>
       <c r="Q3">
-        <v>5648.929093280196</v>
+        <v>0.1540682832231667</v>
       </c>
       <c r="R3">
-        <v>5648.929093280196</v>
+        <v>0.9244096993390001</v>
       </c>
       <c r="S3">
-        <v>0.01383087845943523</v>
+        <v>3.259579598853305E-07</v>
       </c>
       <c r="T3">
-        <v>0.01383087845943523</v>
+        <v>2.412374557904566E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.0030457740495</v>
+        <v>28.5964765</v>
       </c>
       <c r="H4">
-        <v>28.0030457740495</v>
+        <v>57.192953</v>
       </c>
       <c r="I4">
-        <v>0.03684545808452985</v>
+        <v>0.03476572333614217</v>
       </c>
       <c r="J4">
-        <v>0.03684545808452985</v>
+        <v>0.02571318923534191</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>334.627309836981</v>
+        <v>236.563113</v>
       </c>
       <c r="N4">
-        <v>334.627309836981</v>
+        <v>709.689339</v>
       </c>
       <c r="O4">
-        <v>0.6226820313747392</v>
+        <v>0.4116770241732021</v>
       </c>
       <c r="P4">
-        <v>0.6226820313747392</v>
+        <v>0.4119410786826471</v>
       </c>
       <c r="Q4">
-        <v>9370.583874612024</v>
+        <v>6764.871501671345</v>
       </c>
       <c r="R4">
-        <v>9370.583874612024</v>
+        <v>40589.22901002807</v>
       </c>
       <c r="S4">
-        <v>0.02294300468700785</v>
+        <v>0.01431224952625186</v>
       </c>
       <c r="T4">
-        <v>0.02294300468700785</v>
+        <v>0.01059231890997778</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.0030457740495</v>
+        <v>28.5964765</v>
       </c>
       <c r="H5">
-        <v>28.0030457740495</v>
+        <v>57.192953</v>
       </c>
       <c r="I5">
-        <v>0.03684545808452985</v>
+        <v>0.03476572333614217</v>
       </c>
       <c r="J5">
-        <v>0.03684545808452985</v>
+        <v>0.02571318923534191</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.533160921417418</v>
+        <v>335.3650816666666</v>
       </c>
       <c r="N5">
-        <v>0.533160921417418</v>
+        <v>1006.095245</v>
       </c>
       <c r="O5">
-        <v>0.000992117845251661</v>
+        <v>0.583616342722613</v>
       </c>
       <c r="P5">
-        <v>0.000992117845251661</v>
+        <v>0.5839906811433476</v>
       </c>
       <c r="Q5">
-        <v>14.93012968738637</v>
+        <v>9590.259676801414</v>
       </c>
       <c r="R5">
-        <v>14.93012968738637</v>
+        <v>57541.55806080849</v>
       </c>
       <c r="S5">
-        <v>3.655503648213415E-05</v>
+        <v>0.02028984430554549</v>
       </c>
       <c r="T5">
-        <v>3.655503648213415E-05</v>
+        <v>0.01501626289591512</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>240.747380062863</v>
+        <v>28.5964765</v>
       </c>
       <c r="H6">
-        <v>240.747380062863</v>
+        <v>57.192953</v>
       </c>
       <c r="I6">
-        <v>0.3167672392724817</v>
+        <v>0.03476572333614217</v>
       </c>
       <c r="J6">
-        <v>0.3167672392724817</v>
+        <v>0.02571318923534191</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.510770739254903</v>
+        <v>1.594178</v>
       </c>
       <c r="N6">
-        <v>0.510770739254903</v>
+        <v>4.782534</v>
       </c>
       <c r="O6">
-        <v>0.0009504536902291754</v>
+        <v>0.002774255236666534</v>
       </c>
       <c r="P6">
-        <v>0.0009504536902291754</v>
+        <v>0.002776034676767823</v>
       </c>
       <c r="Q6">
-        <v>122.9667172883896</v>
+        <v>45.587873713817</v>
       </c>
       <c r="R6">
-        <v>122.9667172883896</v>
+        <v>273.527242282902</v>
       </c>
       <c r="S6">
-        <v>0.0003010725915102384</v>
+        <v>9.644899002179233E-05</v>
       </c>
       <c r="T6">
-        <v>0.0003010725915102384</v>
+        <v>7.138070496760226E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>240.747380062863</v>
+        <v>258.8358916666667</v>
       </c>
       <c r="H7">
-        <v>240.747380062863</v>
+        <v>776.5076750000001</v>
       </c>
       <c r="I7">
-        <v>0.3167672392724817</v>
+        <v>0.3146757258415036</v>
       </c>
       <c r="J7">
-        <v>0.3167672392724817</v>
+        <v>0.3491074991349087</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>201.725524389746</v>
+        <v>1.10502</v>
       </c>
       <c r="N7">
-        <v>201.725524389746</v>
+        <v>2.21004</v>
       </c>
       <c r="O7">
-        <v>0.3753753970897798</v>
+        <v>0.001923002024630407</v>
       </c>
       <c r="P7">
-        <v>0.3753753970897798</v>
+        <v>0.00128282364057296</v>
       </c>
       <c r="Q7">
-        <v>48564.89148863852</v>
+        <v>286.0188370095</v>
       </c>
       <c r="R7">
-        <v>48564.89148863852</v>
+        <v>1716.113022057</v>
       </c>
       <c r="S7">
-        <v>0.1189066282269411</v>
+        <v>0.0006051220578952543</v>
       </c>
       <c r="T7">
-        <v>0.1189066282269411</v>
+        <v>0.0004478433529915651</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>240.747380062863</v>
+        <v>258.8358916666667</v>
       </c>
       <c r="H8">
-        <v>240.747380062863</v>
+        <v>776.5076750000001</v>
       </c>
       <c r="I8">
-        <v>0.3167672392724817</v>
+        <v>0.3146757258415036</v>
       </c>
       <c r="J8">
-        <v>0.3167672392724817</v>
+        <v>0.3491074991349087</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>334.627309836981</v>
+        <v>0.005387666666666666</v>
       </c>
       <c r="N8">
-        <v>334.627309836981</v>
+        <v>0.016163</v>
       </c>
       <c r="O8">
-        <v>0.6226820313747392</v>
+        <v>9.37584288794208E-06</v>
       </c>
       <c r="P8">
-        <v>0.6226820313747392</v>
+        <v>9.381856664395554E-06</v>
       </c>
       <c r="Q8">
-        <v>80560.64814073707</v>
+        <v>1.394521505669444</v>
       </c>
       <c r="R8">
-        <v>80560.64814073707</v>
+        <v>12.550693551025</v>
       </c>
       <c r="S8">
-        <v>0.1972452680231569</v>
+        <v>2.950350166139073E-06</v>
       </c>
       <c r="T8">
-        <v>0.1972452680231569</v>
+        <v>3.275276517349309E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>240.747380062863</v>
+        <v>258.8358916666667</v>
       </c>
       <c r="H9">
-        <v>240.747380062863</v>
+        <v>776.5076750000001</v>
       </c>
       <c r="I9">
-        <v>0.3167672392724817</v>
+        <v>0.3146757258415036</v>
       </c>
       <c r="J9">
-        <v>0.3167672392724817</v>
+        <v>0.3491074991349087</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.533160921417418</v>
+        <v>236.563113</v>
       </c>
       <c r="N9">
-        <v>0.533160921417418</v>
+        <v>709.689339</v>
       </c>
       <c r="O9">
-        <v>0.000992117845251661</v>
+        <v>0.4116770241732021</v>
       </c>
       <c r="P9">
-        <v>0.000992117845251661</v>
+        <v>0.4119410786826471</v>
       </c>
       <c r="Q9">
-        <v>128.3570949831453</v>
+        <v>61231.02428879743</v>
       </c>
       <c r="R9">
-        <v>128.3570949831453</v>
+        <v>551079.2185991768</v>
       </c>
       <c r="S9">
-        <v>0.0003142704308733319</v>
+        <v>0.1295447663939726</v>
       </c>
       <c r="T9">
-        <v>0.0003142704308733319</v>
+        <v>0.1438117197698356</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>155.503326902189</v>
+        <v>258.8358916666667</v>
       </c>
       <c r="H10">
-        <v>155.503326902189</v>
+        <v>776.5076750000001</v>
       </c>
       <c r="I10">
-        <v>0.2046060046328666</v>
+        <v>0.3146757258415036</v>
       </c>
       <c r="J10">
-        <v>0.2046060046328666</v>
+        <v>0.3491074991349087</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.510770739254903</v>
+        <v>335.3650816666666</v>
       </c>
       <c r="N10">
-        <v>0.510770739254903</v>
+        <v>1006.095245</v>
       </c>
       <c r="O10">
-        <v>0.0009504536902291754</v>
+        <v>0.583616342722613</v>
       </c>
       <c r="P10">
-        <v>0.0009504536902291754</v>
+        <v>0.5839906811433476</v>
       </c>
       <c r="Q10">
-        <v>79.42654923842792</v>
+        <v>86804.51994705615</v>
       </c>
       <c r="R10">
-        <v>79.42654923842792</v>
+        <v>781240.6795235054</v>
       </c>
       <c r="S10">
-        <v>0.0001944685321463558</v>
+        <v>0.1836498962592019</v>
       </c>
       <c r="T10">
-        <v>0.0001944685321463558</v>
+        <v>0.203875526212046</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,55 +1092,55 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>155.503326902189</v>
+        <v>258.8358916666667</v>
       </c>
       <c r="H11">
-        <v>155.503326902189</v>
+        <v>776.5076750000001</v>
       </c>
       <c r="I11">
-        <v>0.2046060046328666</v>
+        <v>0.3146757258415036</v>
       </c>
       <c r="J11">
-        <v>0.2046060046328666</v>
+        <v>0.3491074991349087</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>201.725524389746</v>
+        <v>1.594178</v>
       </c>
       <c r="N11">
-        <v>201.725524389746</v>
+        <v>4.782534</v>
       </c>
       <c r="O11">
-        <v>0.3753753970897798</v>
+        <v>0.002774255236666534</v>
       </c>
       <c r="P11">
-        <v>0.3753753970897798</v>
+        <v>0.002776034676767823</v>
       </c>
       <c r="Q11">
-        <v>31368.99016369417</v>
+        <v>412.6304841053833</v>
       </c>
       <c r="R11">
-        <v>31368.99016369417</v>
+        <v>3713.67435694845</v>
       </c>
       <c r="S11">
-        <v>0.07680406023601563</v>
+        <v>0.0008729907802676337</v>
       </c>
       <c r="T11">
-        <v>0.07680406023601563</v>
+        <v>0.0009691345235181996</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>155.503326902189</v>
+        <v>168.738088</v>
       </c>
       <c r="H12">
-        <v>155.503326902189</v>
+        <v>506.214264</v>
       </c>
       <c r="I12">
-        <v>0.2046060046328666</v>
+        <v>0.2051407166780708</v>
       </c>
       <c r="J12">
-        <v>0.2046060046328666</v>
+        <v>0.2275871848033678</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>334.627309836981</v>
+        <v>1.10502</v>
       </c>
       <c r="N12">
-        <v>334.627309836981</v>
+        <v>2.21004</v>
       </c>
       <c r="O12">
-        <v>0.6226820313747392</v>
+        <v>0.001923002024630407</v>
       </c>
       <c r="P12">
-        <v>0.6226820313747392</v>
+        <v>0.00128282364057296</v>
       </c>
       <c r="Q12">
-        <v>52035.65995198014</v>
+        <v>186.45896200176</v>
       </c>
       <c r="R12">
-        <v>52035.65995198014</v>
+        <v>1118.75377201056</v>
       </c>
       <c r="S12">
-        <v>0.1274044825962627</v>
+        <v>0.000394486013506063</v>
       </c>
       <c r="T12">
-        <v>0.1274044825962627</v>
+        <v>0.0002919542209572073</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>155.503326902189</v>
+        <v>168.738088</v>
       </c>
       <c r="H13">
-        <v>155.503326902189</v>
+        <v>506.214264</v>
       </c>
       <c r="I13">
-        <v>0.2046060046328666</v>
+        <v>0.2051407166780708</v>
       </c>
       <c r="J13">
-        <v>0.2046060046328666</v>
+        <v>0.2275871848033678</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.533160921417418</v>
+        <v>0.005387666666666666</v>
       </c>
       <c r="N13">
-        <v>0.533160921417418</v>
+        <v>0.016163</v>
       </c>
       <c r="O13">
-        <v>0.000992117845251661</v>
+        <v>9.37584288794208E-06</v>
       </c>
       <c r="P13">
-        <v>0.000992117845251661</v>
+        <v>9.381856664395554E-06</v>
       </c>
       <c r="Q13">
-        <v>82.90829705464505</v>
+        <v>0.9091045721146667</v>
       </c>
       <c r="R13">
-        <v>82.90829705464505</v>
+        <v>8.181941149032001</v>
       </c>
       <c r="S13">
-        <v>0.000202993268441911</v>
+        <v>1.923367129493432E-06</v>
       </c>
       <c r="T13">
-        <v>0.000202993268441911</v>
+        <v>2.135190346478499E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,122 +1278,122 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>114.700188302812</v>
+        <v>168.738088</v>
       </c>
       <c r="H14">
-        <v>114.700188302812</v>
+        <v>506.214264</v>
       </c>
       <c r="I14">
-        <v>0.1509186184424036</v>
+        <v>0.2051407166780708</v>
       </c>
       <c r="J14">
-        <v>0.1509186184424036</v>
+        <v>0.2275871848033678</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.510770739254903</v>
+        <v>236.563113</v>
       </c>
       <c r="N14">
-        <v>0.510770739254903</v>
+        <v>709.689339</v>
       </c>
       <c r="O14">
-        <v>0.0009504536902291754</v>
+        <v>0.4116770241732021</v>
       </c>
       <c r="P14">
-        <v>0.0009504536902291754</v>
+        <v>0.4119410786826471</v>
       </c>
       <c r="Q14">
-        <v>58.58549997210386</v>
+        <v>39917.20737894795</v>
       </c>
       <c r="R14">
-        <v>58.58549997210386</v>
+        <v>359254.8664105315</v>
       </c>
       <c r="S14">
-        <v>0.0001434411578228714</v>
+        <v>0.08445171977878617</v>
       </c>
       <c r="T14">
-        <v>0.0001434411578228714</v>
+        <v>0.09375251040224629</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>114.700188302812</v>
+        <v>168.738088</v>
       </c>
       <c r="H15">
-        <v>114.700188302812</v>
+        <v>506.214264</v>
       </c>
       <c r="I15">
-        <v>0.1509186184424036</v>
+        <v>0.2051407166780708</v>
       </c>
       <c r="J15">
-        <v>0.1509186184424036</v>
+        <v>0.2275871848033678</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>201.725524389746</v>
+        <v>335.3650816666666</v>
       </c>
       <c r="N15">
-        <v>201.725524389746</v>
+        <v>1006.095245</v>
       </c>
       <c r="O15">
-        <v>0.3753753970897798</v>
+        <v>0.583616342722613</v>
       </c>
       <c r="P15">
-        <v>0.3753753970897798</v>
+        <v>0.5839906811433476</v>
       </c>
       <c r="Q15">
-        <v>23137.95563298736</v>
+        <v>56588.86266239719</v>
       </c>
       <c r="R15">
-        <v>23137.95563298736</v>
+        <v>509299.7639615747</v>
       </c>
       <c r="S15">
-        <v>0.05665113632605824</v>
+        <v>0.1197234748111514</v>
       </c>
       <c r="T15">
-        <v>0.05665113632605824</v>
+        <v>0.1329087950728157</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>114.700188302812</v>
+        <v>168.738088</v>
       </c>
       <c r="H16">
-        <v>114.700188302812</v>
+        <v>506.214264</v>
       </c>
       <c r="I16">
-        <v>0.1509186184424036</v>
+        <v>0.2051407166780708</v>
       </c>
       <c r="J16">
-        <v>0.1509186184424036</v>
+        <v>0.2275871848033678</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>334.627309836981</v>
+        <v>1.594178</v>
       </c>
       <c r="N16">
-        <v>334.627309836981</v>
+        <v>4.782534</v>
       </c>
       <c r="O16">
-        <v>0.6226820313747392</v>
+        <v>0.002774255236666534</v>
       </c>
       <c r="P16">
-        <v>0.6226820313747392</v>
+        <v>0.002776034676767823</v>
       </c>
       <c r="Q16">
-        <v>38381.81544956513</v>
+        <v>268.998547651664</v>
       </c>
       <c r="R16">
-        <v>38381.81544956513</v>
+        <v>2420.986928864976</v>
       </c>
       <c r="S16">
-        <v>0.09397431190398509</v>
+        <v>0.0005691127074976637</v>
       </c>
       <c r="T16">
-        <v>0.09397431190398509</v>
+        <v>0.0006317899170021161</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>114.700188302812</v>
+        <v>125.5465903333333</v>
       </c>
       <c r="H17">
-        <v>114.700188302812</v>
+        <v>376.639771</v>
       </c>
       <c r="I17">
-        <v>0.1509186184424036</v>
+        <v>0.1526313224401841</v>
       </c>
       <c r="J17">
-        <v>0.1509186184424036</v>
+        <v>0.1693322200949974</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.533160921417418</v>
+        <v>1.10502</v>
       </c>
       <c r="N17">
-        <v>0.533160921417418</v>
+        <v>2.21004</v>
       </c>
       <c r="O17">
-        <v>0.000992117845251661</v>
+        <v>0.001923002024630407</v>
       </c>
       <c r="P17">
-        <v>0.000992117845251661</v>
+        <v>0.00128282364057296</v>
       </c>
       <c r="Q17">
-        <v>61.1536580822786</v>
+        <v>138.73149325014</v>
       </c>
       <c r="R17">
-        <v>61.1536580822786</v>
+        <v>832.3889595008401</v>
       </c>
       <c r="S17">
-        <v>0.0001497290545374351</v>
+        <v>0.0002935103420744905</v>
       </c>
       <c r="T17">
-        <v>0.0001497290545374351</v>
+        <v>0.0002172233750485663</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>24.2800972262216</v>
+        <v>125.5465903333333</v>
       </c>
       <c r="H18">
-        <v>24.2800972262216</v>
+        <v>376.639771</v>
       </c>
       <c r="I18">
-        <v>0.03194692862538889</v>
+        <v>0.1526313224401841</v>
       </c>
       <c r="J18">
-        <v>0.03194692862538889</v>
+        <v>0.1693322200949974</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.510770739254903</v>
+        <v>0.005387666666666666</v>
       </c>
       <c r="N18">
-        <v>0.510770739254903</v>
+        <v>0.016163</v>
       </c>
       <c r="O18">
-        <v>0.0009504536902291754</v>
+        <v>9.37584288794208E-06</v>
       </c>
       <c r="P18">
-        <v>0.0009504536902291754</v>
+        <v>9.381856664395554E-06</v>
       </c>
       <c r="Q18">
-        <v>12.40156320941813</v>
+        <v>0.6764031798525555</v>
       </c>
       <c r="R18">
-        <v>12.40156320941813</v>
+        <v>6.087628618673</v>
       </c>
       <c r="S18">
-        <v>3.036407620348895E-05</v>
+        <v>1.431047298977994E-06</v>
       </c>
       <c r="T18">
-        <v>3.036407620348895E-05</v>
+        <v>1.588650617595146E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,57 +1591,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>24.2800972262216</v>
+        <v>125.5465903333333</v>
       </c>
       <c r="H19">
-        <v>24.2800972262216</v>
+        <v>376.639771</v>
       </c>
       <c r="I19">
-        <v>0.03194692862538889</v>
+        <v>0.1526313224401841</v>
       </c>
       <c r="J19">
-        <v>0.03194692862538889</v>
+        <v>0.1693322200949974</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>201.725524389746</v>
+        <v>236.563113</v>
       </c>
       <c r="N19">
-        <v>201.725524389746</v>
+        <v>709.689339</v>
       </c>
       <c r="O19">
-        <v>0.3753753970897798</v>
+        <v>0.4116770241732021</v>
       </c>
       <c r="P19">
-        <v>0.3753753970897798</v>
+        <v>0.4119410786826471</v>
       </c>
       <c r="Q19">
-        <v>4897.915345193569</v>
+        <v>29699.69223578904</v>
       </c>
       <c r="R19">
-        <v>4897.915345193569</v>
+        <v>267297.2301221014</v>
       </c>
       <c r="S19">
-        <v>0.01199209101855421</v>
+        <v>0.06283480861779546</v>
       </c>
       <c r="T19">
-        <v>0.01199209101855421</v>
+        <v>0.06975489740166065</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,57 +1653,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>24.2800972262216</v>
+        <v>125.5465903333333</v>
       </c>
       <c r="H20">
-        <v>24.2800972262216</v>
+        <v>376.639771</v>
       </c>
       <c r="I20">
-        <v>0.03194692862538889</v>
+        <v>0.1526313224401841</v>
       </c>
       <c r="J20">
-        <v>0.03194692862538889</v>
+        <v>0.1693322200949974</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>334.627309836981</v>
+        <v>335.3650816666666</v>
       </c>
       <c r="N20">
-        <v>334.627309836981</v>
+        <v>1006.095245</v>
       </c>
       <c r="O20">
-        <v>0.6226820313747392</v>
+        <v>0.583616342722613</v>
       </c>
       <c r="P20">
-        <v>0.6226820313747392</v>
+        <v>0.5839906811433476</v>
       </c>
       <c r="Q20">
-        <v>8124.783617390878</v>
+        <v>42103.94252010987</v>
       </c>
       <c r="R20">
-        <v>8124.783617390878</v>
+        <v>378935.4826809889</v>
       </c>
       <c r="S20">
-        <v>0.01989277841264096</v>
+        <v>0.08907813418745611</v>
       </c>
       <c r="T20">
-        <v>0.01989277841264096</v>
+        <v>0.09888843855279279</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,57 +1715,57 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>24.2800972262216</v>
+        <v>125.5465903333333</v>
       </c>
       <c r="H21">
-        <v>24.2800972262216</v>
+        <v>376.639771</v>
       </c>
       <c r="I21">
-        <v>0.03194692862538889</v>
+        <v>0.1526313224401841</v>
       </c>
       <c r="J21">
-        <v>0.03194692862538889</v>
+        <v>0.1693322200949974</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.533160921417418</v>
+        <v>1.594178</v>
       </c>
       <c r="N21">
-        <v>0.533160921417418</v>
+        <v>4.782534</v>
       </c>
       <c r="O21">
-        <v>0.000992117845251661</v>
+        <v>0.002774255236666534</v>
       </c>
       <c r="P21">
-        <v>0.000992117845251661</v>
+        <v>0.002776034676767823</v>
       </c>
       <c r="Q21">
-        <v>12.9451990092368</v>
+        <v>200.1436122844127</v>
       </c>
       <c r="R21">
-        <v>12.9451990092368</v>
+        <v>1801.292510559714</v>
       </c>
       <c r="S21">
-        <v>3.169511799022944E-05</v>
+        <v>0.0004234382455590189</v>
       </c>
       <c r="T21">
-        <v>3.169511799022944E-05</v>
+        <v>0.0004700721148777941</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,57 +1777,57 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>196.779467597518</v>
+        <v>26.04865166666667</v>
       </c>
       <c r="H22">
-        <v>196.779467597518</v>
+        <v>78.145955</v>
       </c>
       <c r="I22">
-        <v>0.2589157509423293</v>
+        <v>0.03166824476165348</v>
       </c>
       <c r="J22">
-        <v>0.2589157509423293</v>
+        <v>0.03513337961219652</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.510770739254903</v>
+        <v>1.10502</v>
       </c>
       <c r="N22">
-        <v>0.510770739254903</v>
+        <v>2.21004</v>
       </c>
       <c r="O22">
-        <v>0.0009504536902291754</v>
+        <v>0.001923002024630407</v>
       </c>
       <c r="P22">
-        <v>0.0009504536902291754</v>
+        <v>0.00128282364057296</v>
       </c>
       <c r="Q22">
-        <v>100.5091941349705</v>
+        <v>28.7842810647</v>
       </c>
       <c r="R22">
-        <v>100.5091941349705</v>
+        <v>172.7056863882</v>
       </c>
       <c r="S22">
-        <v>0.000246087430941595</v>
+        <v>6.089809879315094E-05</v>
       </c>
       <c r="T22">
-        <v>0.000246087430941595</v>
+        <v>4.506992993974974E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>196.779467597518</v>
+        <v>26.04865166666667</v>
       </c>
       <c r="H23">
-        <v>196.779467597518</v>
+        <v>78.145955</v>
       </c>
       <c r="I23">
-        <v>0.2589157509423293</v>
+        <v>0.03166824476165348</v>
       </c>
       <c r="J23">
-        <v>0.2589157509423293</v>
+        <v>0.03513337961219652</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>201.725524389746</v>
+        <v>0.005387666666666666</v>
       </c>
       <c r="N23">
-        <v>201.725524389746</v>
+        <v>0.016163</v>
       </c>
       <c r="O23">
-        <v>0.3753753970897798</v>
+        <v>9.37584288794208E-06</v>
       </c>
       <c r="P23">
-        <v>0.3753753970897798</v>
+        <v>9.381856664395554E-06</v>
       </c>
       <c r="Q23">
-        <v>39695.44129024435</v>
+        <v>0.1403414522961111</v>
       </c>
       <c r="R23">
-        <v>39695.44129024435</v>
+        <v>1.263073070665</v>
       </c>
       <c r="S23">
-        <v>0.09719060282277542</v>
+        <v>2.969164874221578E-07</v>
       </c>
       <c r="T23">
-        <v>0.09719060282277542</v>
+        <v>3.296163316574248E-07</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,489 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>196.779467597518</v>
+        <v>26.04865166666667</v>
       </c>
       <c r="H24">
-        <v>196.779467597518</v>
+        <v>78.145955</v>
       </c>
       <c r="I24">
-        <v>0.2589157509423293</v>
+        <v>0.03166824476165348</v>
       </c>
       <c r="J24">
-        <v>0.2589157509423293</v>
+        <v>0.03513337961219652</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>334.627309836981</v>
+        <v>236.563113</v>
       </c>
       <c r="N24">
-        <v>334.627309836981</v>
+        <v>709.689339</v>
       </c>
       <c r="O24">
-        <v>0.6226820313747392</v>
+        <v>0.4116770241732021</v>
       </c>
       <c r="P24">
-        <v>0.6226820313747392</v>
+        <v>0.4119410786826471</v>
       </c>
       <c r="Q24">
-        <v>65847.78387331082</v>
+        <v>6162.150127719306</v>
       </c>
       <c r="R24">
-        <v>65847.78387331082</v>
+        <v>55459.35114947375</v>
       </c>
       <c r="S24">
-        <v>0.1612221857516857</v>
+        <v>0.0130370887642661</v>
       </c>
       <c r="T24">
-        <v>0.1612221857516857</v>
+        <v>0.01447288229521516</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>26.04865166666667</v>
+      </c>
+      <c r="H25">
+        <v>78.145955</v>
+      </c>
+      <c r="I25">
+        <v>0.03166824476165348</v>
+      </c>
+      <c r="J25">
+        <v>0.03513337961219652</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>335.3650816666666</v>
+      </c>
+      <c r="N25">
+        <v>1006.095245</v>
+      </c>
+      <c r="O25">
+        <v>0.583616342722613</v>
+      </c>
+      <c r="P25">
+        <v>0.5839906811433476</v>
+      </c>
+      <c r="Q25">
+        <v>8735.80819349822</v>
+      </c>
+      <c r="R25">
+        <v>78622.27374148398</v>
+      </c>
+      <c r="S25">
+        <v>0.01848210518824075</v>
+      </c>
+      <c r="T25">
+        <v>0.02051756629059445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>26.04865166666667</v>
+      </c>
+      <c r="H26">
+        <v>78.145955</v>
+      </c>
+      <c r="I26">
+        <v>0.03166824476165348</v>
+      </c>
+      <c r="J26">
+        <v>0.03513337961219652</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.594178</v>
+      </c>
+      <c r="N26">
+        <v>4.782534</v>
+      </c>
+      <c r="O26">
+        <v>0.002774255236666534</v>
+      </c>
+      <c r="P26">
+        <v>0.002776034676767823</v>
+      </c>
+      <c r="Q26">
+        <v>41.52618741666334</v>
+      </c>
+      <c r="R26">
+        <v>373.73568674997</v>
+      </c>
+      <c r="S26">
+        <v>8.78557938660547E-05</v>
+      </c>
+      <c r="T26">
+        <v>9.753148011550519E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>214.7823105</v>
+      </c>
+      <c r="H27">
+        <v>429.564621</v>
+      </c>
+      <c r="I27">
+        <v>0.2611182669424459</v>
+      </c>
+      <c r="J27">
+        <v>0.1931265271191877</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.10502</v>
+      </c>
+      <c r="N27">
+        <v>2.21004</v>
+      </c>
+      <c r="O27">
+        <v>0.001923002024630407</v>
+      </c>
+      <c r="P27">
+        <v>0.00128282364057296</v>
+      </c>
+      <c r="Q27">
+        <v>237.33874874871</v>
+      </c>
+      <c r="R27">
+        <v>949.3549949948401</v>
+      </c>
+      <c r="S27">
+        <v>0.0005021309559983067</v>
+      </c>
+      <c r="T27">
+        <v>0.0002477472746102489</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>214.7823105</v>
+      </c>
+      <c r="H28">
+        <v>429.564621</v>
+      </c>
+      <c r="I28">
+        <v>0.2611182669424459</v>
+      </c>
+      <c r="J28">
+        <v>0.1931265271191877</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.005387666666666666</v>
+      </c>
+      <c r="N28">
+        <v>0.016163</v>
+      </c>
+      <c r="O28">
+        <v>9.37584288794208E-06</v>
+      </c>
+      <c r="P28">
+        <v>9.381856664395554E-06</v>
+      </c>
+      <c r="Q28">
+        <v>1.1571754948705</v>
+      </c>
+      <c r="R28">
+        <v>6.943052969223</v>
+      </c>
+      <c r="S28">
+        <v>2.448203846024093E-06</v>
+      </c>
+      <c r="T28">
+        <v>1.81188539552472E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>214.7823105</v>
+      </c>
+      <c r="H29">
+        <v>429.564621</v>
+      </c>
+      <c r="I29">
+        <v>0.2611182669424459</v>
+      </c>
+      <c r="J29">
+        <v>0.1931265271191877</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>236.563113</v>
+      </c>
+      <c r="N29">
+        <v>709.689339</v>
+      </c>
+      <c r="O29">
+        <v>0.4116770241732021</v>
+      </c>
+      <c r="P29">
+        <v>0.4119410786826471</v>
+      </c>
+      <c r="Q29">
+        <v>50809.57198921259</v>
+      </c>
+      <c r="R29">
+        <v>304857.4319352755</v>
+      </c>
+      <c r="S29">
+        <v>0.10749639109213</v>
+      </c>
+      <c r="T29">
+        <v>0.07955674990371168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>214.7823105</v>
+      </c>
+      <c r="H30">
+        <v>429.564621</v>
+      </c>
+      <c r="I30">
+        <v>0.2611182669424459</v>
+      </c>
+      <c r="J30">
+        <v>0.1931265271191877</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>335.3650816666666</v>
+      </c>
+      <c r="N30">
+        <v>1006.095245</v>
+      </c>
+      <c r="O30">
+        <v>0.583616342722613</v>
+      </c>
+      <c r="P30">
+        <v>0.5839906811433476</v>
+      </c>
+      <c r="Q30">
+        <v>72030.48710138784</v>
+      </c>
+      <c r="R30">
+        <v>432182.9226083271</v>
+      </c>
+      <c r="S30">
+        <v>0.1523928879710173</v>
+      </c>
+      <c r="T30">
+        <v>0.1127840921191836</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>24</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>196.779467597518</v>
-      </c>
-      <c r="H25">
-        <v>196.779467597518</v>
-      </c>
-      <c r="I25">
-        <v>0.2589157509423293</v>
-      </c>
-      <c r="J25">
-        <v>0.2589157509423293</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.533160921417418</v>
-      </c>
-      <c r="N25">
-        <v>0.533160921417418</v>
-      </c>
-      <c r="O25">
-        <v>0.000992117845251661</v>
-      </c>
-      <c r="P25">
-        <v>0.000992117845251661</v>
-      </c>
-      <c r="Q25">
-        <v>104.9151222603216</v>
-      </c>
-      <c r="R25">
-        <v>104.9151222603216</v>
-      </c>
-      <c r="S25">
-        <v>0.0002568749369266195</v>
-      </c>
-      <c r="T25">
-        <v>0.0002568749369266195</v>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>214.7823105</v>
+      </c>
+      <c r="H31">
+        <v>429.564621</v>
+      </c>
+      <c r="I31">
+        <v>0.2611182669424459</v>
+      </c>
+      <c r="J31">
+        <v>0.1931265271191877</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.594178</v>
+      </c>
+      <c r="N31">
+        <v>4.782534</v>
+      </c>
+      <c r="O31">
+        <v>0.002774255236666534</v>
+      </c>
+      <c r="P31">
+        <v>0.002776034676767823</v>
+      </c>
+      <c r="Q31">
+        <v>342.401234188269</v>
+      </c>
+      <c r="R31">
+        <v>2054.407405129614</v>
+      </c>
+      <c r="S31">
+        <v>0.0007244087194543705</v>
+      </c>
+      <c r="T31">
+        <v>0.0005361259362866065</v>
       </c>
     </row>
   </sheetData>
